--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ens-pedrotimoteo_ugv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D747CC-F813-4408-A770-29B01752DC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2C220F-17FD-4711-95D3-B452646ED90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>vencimento</t>
   </si>
   <si>
-    <t>amanda</t>
-  </si>
-  <si>
     <t>jorge</t>
   </si>
   <si>
@@ -74,10 +71,13 @@
     <t>vanessa</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t>Luiz Puff</t>
+  </si>
+  <si>
+    <t>Bruno Resende</t>
+  </si>
+  <si>
+    <t>Allan Prust</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -480,10 +480,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>5542991094107</v>
+        <v>5547991773481</v>
       </c>
       <c r="C2" s="3">
         <v>45991</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>5542988363498</v>
+        <v>5542991094107</v>
       </c>
       <c r="C3" s="3">
         <v>45992</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>5521976543210</v>
+        <v>5542988363498</v>
       </c>
       <c r="C4" s="3">
         <v>45993</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>5531965432109</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>5541954321098</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>5551943210987</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>5561932109876</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>5571921098765</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>5581910987654</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>5548898765432</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>5565887654321</v>
